--- a/CCBank Status.xlsx
+++ b/CCBank Status.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="50">
   <si>
     <t>Anu</t>
   </si>
@@ -133,13 +133,86 @@
   </si>
   <si>
     <t>Test with multi-tenant with different configs</t>
+  </si>
+  <si>
+    <t>selection procedures required from Anitha / Shaji sir</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>Membership</t>
+  </si>
+  <si>
+    <t>Deposit</t>
+  </si>
+  <si>
+    <t>Loans</t>
+  </si>
+  <si>
+    <t>Chitty</t>
+  </si>
+  <si>
+    <t>Advance</t>
+  </si>
+  <si>
+    <t>Masterfiles</t>
+  </si>
+  <si>
+    <t>UserLocking</t>
+  </si>
+  <si>
+    <t>Investment Backend</t>
+  </si>
+  <si>
+    <t>Investment Frontend</t>
+  </si>
+  <si>
+    <t>Investment</t>
+  </si>
+  <si>
+    <t>User locking / Amount transfer</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Completed </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">/ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Going on</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,8 +228,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -205,6 +301,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -218,12 +320,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -237,6 +336,11 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -517,23 +621,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="48.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -552,98 +658,228 @@
       <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="G1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="13">
         <v>43218</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>43215</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="13"/>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="3">
+        <v>43215</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="13"/>
+      <c r="B4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="15">
+        <v>43215</v>
+      </c>
+      <c r="E4" s="15">
         <v>43222</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3" t="s">
+      <c r="F4" s="15">
+        <v>43222</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="13"/>
+      <c r="B5" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="15">
+        <v>43215</v>
+      </c>
+      <c r="E5" s="15">
+        <v>43222</v>
+      </c>
+      <c r="F5" s="15">
+        <v>43222</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="13"/>
+      <c r="B6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="7">
+        <v>43234</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="13"/>
+      <c r="B7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I8" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
+        <v>43225</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="3">
+        <v>43215</v>
+      </c>
+      <c r="E9" s="3">
+        <v>43245</v>
+      </c>
+      <c r="G9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="13"/>
+      <c r="B10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D10" s="3">
         <v>43215</v>
       </c>
-      <c r="E3" s="4">
-        <v>43222</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="5" t="s">
+      <c r="E10" s="3">
+        <v>43245</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="13"/>
+      <c r="B11" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="6">
+      <c r="C11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="5">
         <v>43215</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E11" s="5">
+        <v>43230</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="13"/>
+      <c r="B12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="5">
+        <v>43215</v>
+      </c>
+      <c r="E12" s="5">
+        <v>43230</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="13"/>
+      <c r="B13" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="7">
+        <v>43234</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
+      <c r="B14" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="6">
-        <v>43215</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="8">
-        <v>43234</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A9:A14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -674,83 +910,83 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="12" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="12" t="s">
         <v>27</v>
       </c>
     </row>
